--- a/tools/mitre/d3fend.xlsx
+++ b/tools/mitre/d3fend.xlsx
@@ -500,7 +500,9 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A cybersecurity ontology designed to standardize vocabulary for employing techniques to counter malicious cyber threats.</t>
+          <t>A cybersecurity ontology designed to standardize vocabulary for employing techniques to counter malicious cyber threats.
+Version - 1.0.0 - 2024-12-20
+https://d3fend.mitre.org/resources/</t>
         </is>
       </c>
     </row>
